--- a/arquivos/cursocerto-dados.xlsx
+++ b/arquivos/cursocerto-dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19020" windowHeight="7305" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="19020" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="USUARIO" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="CURSO_CONHECIMENTO" sheetId="8" r:id="rId8"/>
     <sheet name="COMENTARIO_CURSO" sheetId="9" r:id="rId9"/>
     <sheet name="AVALIA_COMENTARIO" sheetId="10" r:id="rId10"/>
+    <sheet name="VISITA" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="157">
   <si>
     <t>USUARIO</t>
   </si>
@@ -491,6 +492,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>VISITA</t>
   </si>
 </sst>
 </file>
@@ -584,12 +588,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,10 +597,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -907,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +921,7 @@
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="46.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
@@ -925,32 +929,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -967,10 +971,10 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>43846</v>
       </c>
     </row>
@@ -987,10 +991,10 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>43892</v>
       </c>
     </row>
@@ -1007,10 +1011,10 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>654321</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>43993</v>
       </c>
     </row>
@@ -1021,16 +1025,16 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>44103</v>
       </c>
     </row>
@@ -1047,10 +1051,10 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>44106</v>
       </c>
     </row>
@@ -1067,10 +1071,10 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>44121</v>
       </c>
     </row>
@@ -1087,10 +1091,10 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>44140</v>
       </c>
     </row>
@@ -1107,10 +1111,10 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>44143</v>
       </c>
     </row>
@@ -1121,16 +1125,16 @@
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>44148</v>
       </c>
     </row>
@@ -1147,10 +1151,10 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>44170</v>
       </c>
     </row>
@@ -1170,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,20 +1186,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1314,6 +1318,458 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10003</v>
+      </c>
+      <c r="C3" s="5">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10003</v>
+      </c>
+      <c r="C4" s="5">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>10002</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>10001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>10004</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>10008</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>10007</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>10004</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>10008</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>10007</v>
+      </c>
+      <c r="C16" s="5">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="5">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>10009</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>10004</v>
+      </c>
+      <c r="C19" s="5">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>10006</v>
+      </c>
+      <c r="C20" s="5">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>10008</v>
+      </c>
+      <c r="C21" s="5">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>10005</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>10005</v>
+      </c>
+      <c r="C26" s="5">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>10002</v>
+      </c>
+      <c r="C29" s="5">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>10003</v>
+      </c>
+      <c r="C30" s="5">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>10000</v>
+      </c>
+      <c r="C31" s="5">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32" s="5">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>10005</v>
+      </c>
+      <c r="C33" s="5">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>10008</v>
+      </c>
+      <c r="C35" s="5">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>10009</v>
+      </c>
+      <c r="C36" s="5">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>10007</v>
+      </c>
+      <c r="C37" s="5">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>10001</v>
+      </c>
+      <c r="C38" s="5">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>10007</v>
+      </c>
+      <c r="C39" s="5">
+        <v>44307</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:C39">
+    <sortCondition ref="C3:C39"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1332,16 +1788,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1448,16 +1904,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1572,16 +2028,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1696,16 +2152,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1810,7 +2266,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,44 +2282,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1889,7 +2345,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>43901</v>
       </c>
       <c r="I3">
@@ -1918,7 +2374,7 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>43903</v>
       </c>
       <c r="I4">
@@ -1947,7 +2403,7 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>43959</v>
       </c>
       <c r="I5">
@@ -1976,7 +2432,7 @@
       <c r="G6">
         <v>6</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>44122</v>
       </c>
       <c r="I6">
@@ -2005,7 +2461,7 @@
       <c r="G7">
         <v>7</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>44135</v>
       </c>
       <c r="I7">
@@ -2028,13 +2484,13 @@
       <c r="E8">
         <v>146</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>44248</v>
       </c>
       <c r="I8">
@@ -2057,13 +2513,13 @@
       <c r="E9">
         <v>129.9</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>125</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>44250</v>
       </c>
       <c r="I9">
@@ -2086,13 +2542,13 @@
       <c r="E10">
         <v>1799.9</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>129</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>44250</v>
       </c>
       <c r="I10">
@@ -2121,7 +2577,7 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>44254</v>
       </c>
       <c r="I11">
@@ -2144,13 +2600,13 @@
       <c r="E12">
         <v>64.5</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>133</v>
       </c>
       <c r="G12">
         <v>7</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>44256</v>
       </c>
       <c r="I12">
@@ -2189,28 +2645,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2221,10 +2677,10 @@
       <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>43901</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>81</v>
       </c>
       <c r="E3" t="s">
@@ -2238,13 +2694,13 @@
       <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>43903</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2255,10 +2711,10 @@
       <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>43959</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E5" t="s">
@@ -2272,13 +2728,13 @@
       <c r="B6" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>44230</v>
       </c>
       <c r="D6" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2289,10 +2745,10 @@
       <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>44117</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E7" t="s">
@@ -2306,10 +2762,10 @@
       <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>44122</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E8" t="s">
@@ -2323,10 +2779,10 @@
       <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>44135</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E9" t="s">
@@ -2340,13 +2796,13 @@
       <c r="B10" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>44217</v>
       </c>
       <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2357,10 +2813,10 @@
       <c r="B11" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>44060</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E11" t="s">
@@ -2374,13 +2830,13 @@
       <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>44248</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2423,16 +2879,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2529,7 +2985,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,32 +2999,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2588,6 +3044,9 @@
       <c r="E3" t="s">
         <v>143</v>
       </c>
+      <c r="F3" s="5">
+        <v>44287</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2604,6 +3063,9 @@
       </c>
       <c r="E4" t="s">
         <v>144</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44287</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2622,6 +3084,9 @@
       <c r="E5" t="s">
         <v>145</v>
       </c>
+      <c r="F5" s="5">
+        <v>44288</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2639,6 +3104,9 @@
       <c r="E6" t="s">
         <v>146</v>
       </c>
+      <c r="F6" s="5">
+        <v>44289</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2656,6 +3124,9 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
+      <c r="F7" s="5">
+        <v>44293</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2673,6 +3144,9 @@
       <c r="E8" t="s">
         <v>147</v>
       </c>
+      <c r="F8" s="5">
+        <v>44294</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2690,6 +3164,9 @@
       <c r="E9" t="s">
         <v>148</v>
       </c>
+      <c r="F9" s="5">
+        <v>44295</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2707,6 +3184,9 @@
       <c r="E10" t="s">
         <v>149</v>
       </c>
+      <c r="F10" s="5">
+        <v>44295</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2724,6 +3204,9 @@
       <c r="E11" t="s">
         <v>23</v>
       </c>
+      <c r="F11" s="5">
+        <v>44298</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2740,6 +3223,9 @@
       </c>
       <c r="E12" t="s">
         <v>150</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44299</v>
       </c>
     </row>
   </sheetData>
